--- a/results/residue_clusters.xlsx
+++ b/results/residue_clusters.xlsx
@@ -3304,13 +3304,13 @@
         <v>3626</v>
       </c>
       <c r="C166" t="n">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="D166" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E166" t="n">
-        <v>5.67374340693156</v>
+        <v>5.674454402923584</v>
       </c>
     </row>
   </sheetData>
@@ -3324,7 +3324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4823,23 +4823,6 @@
         <v>7.283039093017578</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>780</v>
-      </c>
-      <c r="B88" t="n">
-        <v>5887</v>
-      </c>
-      <c r="C88" t="n">
-        <v>5887</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" t="n">
-        <v>6.795814037322998</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4851,7 +4834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5020,23 +5003,6 @@
       </c>
       <c r="E9" t="n">
         <v>5.380950450897217</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>130</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5434</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5434</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8.686223030090332</v>
       </c>
     </row>
   </sheetData>
@@ -6688,13 +6654,13 @@
         <v>6016</v>
       </c>
       <c r="C95" t="n">
-        <v>6017</v>
+        <v>6016</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>7.041192531585693</v>
+        <v>6.019171714782715</v>
       </c>
     </row>
   </sheetData>
@@ -6708,7 +6674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6811,23 +6777,6 @@
         <v>6.022099494934082</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>130</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5582</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5582</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5.874401092529297</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6839,7 +6788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9164,23 +9113,6 @@
       </c>
       <c r="E135" t="n">
         <v>7.183615207672119</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>130</v>
-      </c>
-      <c r="B136" t="n">
-        <v>6203</v>
-      </c>
-      <c r="C136" t="n">
-        <v>6203</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1</v>
-      </c>
-      <c r="E136" t="n">
-        <v>9.32347297668457</v>
       </c>
     </row>
   </sheetData>
@@ -9836,13 +9768,13 @@
         <v>6424</v>
       </c>
       <c r="C37" t="n">
-        <v>6425</v>
+        <v>6424</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>7.114738464355469</v>
+        <v>6.906816482543945</v>
       </c>
     </row>
   </sheetData>
@@ -9856,7 +9788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12681,23 +12613,6 @@
       </c>
       <c r="E163" t="n">
         <v>8.363360404968262</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>130</v>
-      </c>
-      <c r="B164" t="n">
-        <v>6488</v>
-      </c>
-      <c r="C164" t="n">
-        <v>6488</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1</v>
-      </c>
-      <c r="E164" t="n">
-        <v>7.501237869262695</v>
       </c>
     </row>
   </sheetData>
@@ -14897,13 +14812,13 @@
         <v>6560</v>
       </c>
       <c r="C127" t="n">
-        <v>6562</v>
+        <v>6561</v>
       </c>
       <c r="D127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E127" t="n">
-        <v>6.536110083262126</v>
+        <v>5.781173467636108</v>
       </c>
     </row>
   </sheetData>
@@ -14917,7 +14832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15863,23 +15778,6 @@
       </c>
       <c r="E54" t="n">
         <v>7.051090717315674</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>130</v>
-      </c>
-      <c r="B55" t="n">
-        <v>6360</v>
-      </c>
-      <c r="C55" t="n">
-        <v>6360</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="n">
-        <v>8.774388313293457</v>
       </c>
     </row>
   </sheetData>
@@ -16592,13 +16490,13 @@
         <v>6776</v>
       </c>
       <c r="C40" t="n">
-        <v>6799</v>
+        <v>6798</v>
       </c>
       <c r="D40" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" t="n">
-        <v>4.508596430222194</v>
+        <v>4.515222746392955</v>
       </c>
     </row>
   </sheetData>
@@ -16612,7 +16510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18491,23 +18389,6 @@
         <v>5.518491506576538</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>130</v>
-      </c>
-      <c r="B110" t="n">
-        <v>3667</v>
-      </c>
-      <c r="C110" t="n">
-        <v>3667</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" t="n">
-        <v>7.649320125579834</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18519,7 +18400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20147,23 +20028,6 @@
         <v>5.967150688171387</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B95" t="n">
-        <v>6728</v>
-      </c>
-      <c r="C95" t="n">
-        <v>6728</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" t="n">
-        <v>14.99595260620117</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20175,7 +20039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21531,23 +21395,6 @@
         <v>4.800301622461389</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>130</v>
-      </c>
-      <c r="B79" t="n">
-        <v>6799</v>
-      </c>
-      <c r="C79" t="n">
-        <v>6799</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="n">
-        <v>4.614262104034424</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21559,7 +21406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22193,23 +22040,6 @@
       </c>
       <c r="E36" t="n">
         <v>6.349173545837402</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>780</v>
-      </c>
-      <c r="B37" t="n">
-        <v>6671</v>
-      </c>
-      <c r="C37" t="n">
-        <v>6671</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>9.758411407470703</v>
       </c>
     </row>
   </sheetData>
@@ -22901,13 +22731,13 @@
         <v>6798</v>
       </c>
       <c r="C39" t="n">
-        <v>6799</v>
+        <v>6798</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>6.853366613388062</v>
+        <v>6.72389030456543</v>
       </c>
     </row>
   </sheetData>
@@ -22921,7 +22751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23279,23 +23109,6 @@
       </c>
       <c r="E20" t="n">
         <v>6.223405838012695</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>130</v>
-      </c>
-      <c r="B21" t="n">
-        <v>6749</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6749</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7.192011833190918</v>
       </c>
     </row>
   </sheetData>
@@ -23403,13 +23216,13 @@
         <v>6770</v>
       </c>
       <c r="C5" t="n">
-        <v>6799</v>
+        <v>6798</v>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>4.680614447593689</v>
+        <v>4.689263121835117</v>
       </c>
     </row>
   </sheetData>
@@ -23423,7 +23236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E262"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27920,23 +27733,6 @@
       </c>
       <c r="E261" t="n">
         <v>6.858291149139404</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B262" t="n">
-        <v>5131</v>
-      </c>
-      <c r="C262" t="n">
-        <v>5131</v>
-      </c>
-      <c r="D262" t="n">
-        <v>1</v>
-      </c>
-      <c r="E262" t="n">
-        <v>7.169937133789062</v>
       </c>
     </row>
   </sheetData>
@@ -28063,13 +27859,13 @@
         <v>4414</v>
       </c>
       <c r="C6" t="n">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>6.397468566894531</v>
+        <v>5.841961860656738</v>
       </c>
     </row>
   </sheetData>
@@ -28083,7 +27879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29125,23 +28921,6 @@
       </c>
       <c r="E60" t="n">
         <v>6.022951602935791</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>130</v>
-      </c>
-      <c r="B61" t="n">
-        <v>4995</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4995</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>8.552557945251465</v>
       </c>
     </row>
   </sheetData>
@@ -29797,13 +29576,13 @@
         <v>5269</v>
       </c>
       <c r="C37" t="n">
-        <v>5270</v>
+        <v>5269</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>8.502933979034424</v>
+        <v>6.047016143798828</v>
       </c>
     </row>
   </sheetData>
@@ -31262,13 +31041,13 @@
         <v>5399</v>
       </c>
       <c r="C84" t="n">
-        <v>5400</v>
+        <v>5399</v>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>5.915382862091064</v>
+        <v>5.045548915863037</v>
       </c>
     </row>
   </sheetData>
@@ -34775,13 +34554,13 @@
         <v>5674</v>
       </c>
       <c r="C204" t="n">
-        <v>5678</v>
+        <v>5677</v>
       </c>
       <c r="D204" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E204" t="n">
-        <v>6.648004150390625</v>
+        <v>5.678019285202026</v>
       </c>
     </row>
   </sheetData>
@@ -34795,7 +34574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35157,23 +34936,6 @@
         <v>6.448755025863647</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>130</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5330</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5330</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5.698581218719482</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/residue_clusters.xlsx
+++ b/results/residue_clusters.xlsx
@@ -31,7 +31,6 @@
     <sheet name="1465" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="1359" sheetId="23" state="visible" r:id="rId23"/>
     <sheet name="1374" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="1400" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3304,13 +3303,13 @@
         <v>3626</v>
       </c>
       <c r="C166" t="n">
-        <v>3630</v>
+        <v>3631</v>
       </c>
       <c r="D166" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E166" t="n">
-        <v>5.674454402923584</v>
+        <v>5.67374340693156</v>
       </c>
     </row>
   </sheetData>
@@ -3324,7 +3323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4821,6 +4820,23 @@
       </c>
       <c r="E87" t="n">
         <v>7.283039093017578</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>780</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5887</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5887</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>6.795814037322998</v>
       </c>
     </row>
   </sheetData>
@@ -6674,7 +6690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6775,6 +6791,23 @@
       </c>
       <c r="E5" t="n">
         <v>6.022099494934082</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>130</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5582</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.874401092529297</v>
       </c>
     </row>
   </sheetData>
@@ -9788,7 +9821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12613,6 +12646,23 @@
       </c>
       <c r="E163" t="n">
         <v>8.363360404968262</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>130</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6488</v>
+      </c>
+      <c r="C164" t="n">
+        <v>6488</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>7.501237869262695</v>
       </c>
     </row>
   </sheetData>
@@ -23116,13 +23166,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23159,120 +23209,6 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6753</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6753</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.152956008911133</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>423</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6754</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6768</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.282794761657715</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>455</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6769</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6769</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5.587139129638672</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>423</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6770</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6798</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.689263121835117</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E261"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>residue</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frames</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>mean_distance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
         <v>780</v>
       </c>
       <c r="B2" t="n">
@@ -27733,6 +27669,23 @@
       </c>
       <c r="E261" t="n">
         <v>6.858291149139404</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B262" t="n">
+        <v>5131</v>
+      </c>
+      <c r="C262" t="n">
+        <v>5131</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1</v>
+      </c>
+      <c r="E262" t="n">
+        <v>7.169937133789062</v>
       </c>
     </row>
   </sheetData>
@@ -34574,7 +34527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34936,6 +34889,40 @@
         <v>6.448755025863647</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>130</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5330</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5330</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.698581218719482</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5331</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5331</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.957254886627197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/residue_clusters.xlsx
+++ b/results/residue_clusters.xlsx
@@ -19682,7 +19682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20957,23 +20957,6 @@
       </c>
       <c r="E73" t="n">
         <v>4.330647945404053</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>130</v>
-      </c>
-      <c r="B74" t="n">
-        <v>5400</v>
-      </c>
-      <c r="C74" t="n">
-        <v>5400</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" t="n">
-        <v>6.582746028900146</v>
       </c>
     </row>
   </sheetData>
@@ -27646,13 +27629,13 @@
         <v>6016</v>
       </c>
       <c r="C107" t="n">
-        <v>6017</v>
+        <v>6016</v>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>5.0720374584198</v>
+        <v>3.535154819488525</v>
       </c>
     </row>
   </sheetData>
@@ -33915,13 +33898,13 @@
         <v>6424</v>
       </c>
       <c r="C239" t="n">
-        <v>6427</v>
+        <v>6426</v>
       </c>
       <c r="D239" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E239" t="n">
-        <v>5.401465058326721</v>
+        <v>5.150159517923991</v>
       </c>
     </row>
   </sheetData>
@@ -37636,13 +37619,13 @@
         <v>6488</v>
       </c>
       <c r="C214" t="n">
-        <v>6489</v>
+        <v>6488</v>
       </c>
       <c r="D214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>5.720654010772705</v>
+        <v>5.260415554046631</v>
       </c>
     </row>
   </sheetData>
@@ -51957,13 +51940,13 @@
         <v>6560</v>
       </c>
       <c r="C138" t="n">
-        <v>6562</v>
+        <v>6561</v>
       </c>
       <c r="D138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E138" t="n">
-        <v>4.433822631835938</v>
+        <v>3.42177939414978</v>
       </c>
     </row>
   </sheetData>
@@ -70413,13 +70396,13 @@
         <v>4414</v>
       </c>
       <c r="C6" t="n">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>4.35412859916687</v>
+        <v>3.486270308494568</v>
       </c>
     </row>
   </sheetData>
@@ -70433,7 +70416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71324,23 +71307,6 @@
       </c>
       <c r="E51" t="n">
         <v>3.588582992553711</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>130</v>
-      </c>
-      <c r="B52" t="n">
-        <v>4995</v>
-      </c>
-      <c r="C52" t="n">
-        <v>4995</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>6.928303241729736</v>
       </c>
     </row>
   </sheetData>
